--- a/data/human/LSR1_H_SOE.xlsx
+++ b/data/human/LSR1_H_SOE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkennett\Documents\GitHub\LSR1_anhedonia_H\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkennett\Documents\GitHub\LSR1_anhedonia_H\data\human\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD5F4FD-190B-44BD-8BF9-E3588E638AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4D589D-11CA-4703-9A9B-E1691FEA90E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28740" yWindow="2820" windowWidth="14460" windowHeight="12330" xr2:uid="{09461E91-9619-4CA9-A1C2-25F30588097D}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7270" xr2:uid="{09461E91-9619-4CA9-A1C2-25F30588097D}"/>
   </bookViews>
   <sheets>
     <sheet name="SOE" sheetId="1" r:id="rId1"/>
@@ -39,8 +39,201 @@
     <t>Pro-dopaminergic intervention. vs placebo in depressed patients with symptoms of anhedonia  </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">N=6, n=2079; random effects: SMD= -0.24, 95%CI: -0.46, -0.03, </t>
+    <t>No clear indication of other biases. </t>
+  </si>
+  <si>
+    <r>
+      <t>Source of evidence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Summary of the association</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bias due to study limitations (internal validity)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bias due to reporting bias (external validity)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bias due to indirectness</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bias due to other reasons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Pro-dopaminergic interventions vs placebo in improving anxiety </t>
+  </si>
+  <si>
+    <r>
+      <t>N=11, n=3517; random effects: SMD=-0.17, 95%CI: -0.24, -0.09, I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>=0%,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;0.001 </t>
+    </r>
+  </si>
+  <si>
+    <t>Acceptability of pro-dopaminergic interventions vs placebo </t>
+  </si>
+  <si>
+    <t>Low risk: 10% of studies had an overall high risk of bias, primarily due to concerns over outcome measurement, while 32% were rated moderate risk of bias. </t>
+  </si>
+  <si>
+    <t>Low risk: the impact of bias on the magnitude and direction of the effects of pro-dopaminergic agonists is low. </t>
+  </si>
+  <si>
+    <t>Low risk: studies included utilised a variety of interventions used in differing populations in a range of settings. </t>
+  </si>
+  <si>
+    <t>Constipation reported for pro-dopaminergic interventions vs placebo </t>
+  </si>
+  <si>
+    <t>Low risk: studies included in the analysis utilised a variety of interventions used in differing populations in a range of settings. </t>
+  </si>
+  <si>
+    <t>No clear indication of other biases </t>
+  </si>
+  <si>
+    <t>Dizziness reported for pro-dopaminergic interventions vs placebo </t>
+  </si>
+  <si>
+    <t>Dry mouth reported for pro-dopaminergic interventions vs placebo </t>
+  </si>
+  <si>
+    <t>Headache reported for pro-dopaminergic interventions vs placebo </t>
+  </si>
+  <si>
+    <t>Nausea reported for pro-dopaminergic interventions vs placebo </t>
+  </si>
+  <si>
+    <t>Low risk: the impact of bias on the magnitude and direction of the effects of pro-dopaminergic agonists is low.  </t>
+  </si>
+  <si>
+    <t>Insomnia reported for pro-dopaminergic interventions vs placebo </t>
+  </si>
+  <si>
+    <t>Low risk: studies included in the analysis utilised a variety of interventions used in differing populations in a range of settings. </t>
+  </si>
+  <si>
+    <t>Vomiting reported for pro-dopaminergic interventions vs placebo </t>
+  </si>
+  <si>
+    <t>Moderate risk: 80% of studies were rated as moderate risk and 20% as high risk due to concerns in RoB2 domains 3 (missing outcome data) and 4 (measuring the outcome)  </t>
+  </si>
+  <si>
+    <t>Moderate risk: the impact of the bias on the magnitude and direction of the effects of pro-dopaminergic interventions is unclear. </t>
+  </si>
+  <si>
+    <t>Moderate risk: only 5 studies contributed to the analysis with a relatively small number of participants. A variety of interventions were tested.  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">N=6, n=2076; random effects: SMD= -0.24, 95%CI: -0.46, -0.03, </t>
     </r>
     <r>
       <rPr>
@@ -97,187 +290,30 @@
     </r>
   </si>
   <si>
-    <t>Moderate risk: 50% of the studies had an overall high risk of bias (due to missing outcome data, and issues with outcome measurement and selective reporting of findings. 50% of studies had a moderate risk of bias.) </t>
-  </si>
-  <si>
-    <t>Moderate risk: all studies were rated at least some concerns in RoB2 domain 5, selection of results. The impact of the bias on the magnitude and direction of the effects of pro-dopaminergic agonists is unclear. </t>
-  </si>
-  <si>
-    <t>No clear indication of other biases. </t>
-  </si>
-  <si>
-    <r>
-      <t>Source of evidence</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>   </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Summary of the association</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>   </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Bias due to study limitations (internal validity)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Bias due to reporting bias (external validity)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Bias due to indirectness</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>   </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Bias due to other reasons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>Moderate risk: 80% of the studies measured the same intervention, bupropion.For outcomes. 50% of studies measured anhedonia using the MEI, 30% using the MADRS anhedonia item and 20% using the IDS-IVR-30/IDS-C-30 Pleasure Scale  No other clear indication of indirectness in terms of population, interventions, and outcomes.  </t>
-  </si>
-  <si>
-    <t>Pro-dopaminergic interventions vs placebo in improving anxiety </t>
-  </si>
-  <si>
-    <r>
-      <t>N=11, n=3517; random effects: SMD=-0.17, 95%CI: -0.24, -0.09, I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>=0%,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;0.001 </t>
-    </r>
-  </si>
-  <si>
-    <t>Moderate risk: 60% of studies were rated moderate risk of bias while 10% were rated as high risk of bias. This was primarily due to domain 2- deviation from intended interventions. </t>
-  </si>
-  <si>
-    <t>Moderate risk: 60% of studies were rated moderate risk in domain 5 of RoB2. The impact of the bias on the magnitude and direction of the effects is unclear. </t>
-  </si>
-  <si>
-    <t>Moderate risk: 70% of studies contributing to the analysis tested bupropion  </t>
-  </si>
-  <si>
-    <t>Acceptability of pro-dopaminergic interventions vs placebo </t>
-  </si>
-  <si>
-    <r>
-      <t>N=50, n=9159; Random effects: OR=0.91, 95%CI: 0.73,  1.14, I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">=72% </t>
+    <t>Moderate risk: 33% of the studies had an overall high risk of bias (due to missing outcome data, and issues with outcome measurement and selective reporting of findings. 33% of studies had a moderate risk of bias.) </t>
+  </si>
+  <si>
+    <r>
+      <t>N=50, n=9168; Random effects: OR=0.96, 95%CI: 0.78,  1.18, I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">=62% </t>
     </r>
     <r>
       <rPr>
@@ -302,24 +338,12 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>=0.334 </t>
-    </r>
-  </si>
-  <si>
-    <t>Low risk: 10% of studies had an overall high risk of bias, primarily due to concerns over outcome measurement, while 32% were rated moderate risk of bias. </t>
-  </si>
-  <si>
-    <t>Low risk: the impact of bias on the magnitude and direction of the effects of pro-dopaminergic agonists is low. </t>
-  </si>
-  <si>
-    <t>Low risk: studies included utilised a variety of interventions used in differing populations in a range of settings. </t>
-  </si>
-  <si>
-    <t>Constipation reported for pro-dopaminergic interventions vs placebo </t>
-  </si>
-  <si>
-    <r>
-      <t>N=19, n=4809; random effects: OR=1.55, 95%CI: 1.25, 1.93, I</t>
+      <t>=0.240 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N=19, n=4818; random effects: OR=1.55, 95%CI: 1.25, 1.93, I</t>
     </r>
     <r>
       <rPr>
@@ -363,24 +387,12 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>=&lt;.001 </t>
-    </r>
-  </si>
-  <si>
-    <t>Low risk: 79% of studies were rated as low risk of bias and no studies were rated high risk of bias. </t>
-  </si>
-  <si>
-    <t>Low risk: studies included in the analysis utilised a variety of interventions used in differing populations in a range of settings. </t>
-  </si>
-  <si>
-    <t>No clear indication of other biases </t>
-  </si>
-  <si>
-    <t>Dizziness reported for pro-dopaminergic interventions vs placebo </t>
-  </si>
-  <si>
-    <r>
-      <t>N=22, n=5460, random effects OR=1.72, 95%CI: 1.32, 2.24, I</t>
+      <t>=0 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N=22, n=5469, random effects OR=1.72, 95%CI: 1.32, 2.23, I</t>
     </r>
     <r>
       <rPr>
@@ -424,18 +436,33 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>=0.08 </t>
-    </r>
-  </si>
-  <si>
-    <t>Low risk: 59% of studies were rated low risk of bias and only 5% were rated high risk of bias. </t>
-  </si>
-  <si>
-    <t>Dry mouth reported for pro-dopaminergic interventions vs placebo </t>
-  </si>
-  <si>
-    <r>
-      <t>N=24, n=6299, random effects OR=2.12, 95%CI: 1.68, 2.67, I</t>
+      <t>=0.080 </t>
+    </r>
+  </si>
+  <si>
+    <t>Low risk: 59% of studies were rated low risk of bias and only 8% were rated high risk of bias. </t>
+  </si>
+  <si>
+    <t>Moderate risk: 83% of studies were rated at least some concerns in RoB2 domain 5, selection of results. The impact of the bias on the magnitude and direction of the effects of pro-dopaminergic agonists is unclear. </t>
+  </si>
+  <si>
+    <t>Moderate risk: 83% of the studies measured the same intervention, bupropion.For outcomes, 50% of studies measured anhedonia using the MEI, 33% using the MADRS anhedonia item and 17% using the IDS-IVR-30/IDS-C-30 Pleasure Scale  No other clear indication of indirectness in terms of population, interventions, and outcomes.  </t>
+  </si>
+  <si>
+    <t>Moderate risk: 73% of studies were rated moderate risk of bias while 18% were rated as high risk of bias. This was primarily due to domain 2- deviation from intended interventions. </t>
+  </si>
+  <si>
+    <t>Moderate risk: 55% of studies were rated moderate risk in domain 5 of RoB2. The impact of the bias on the magnitude and direction of the effects is unclear. </t>
+  </si>
+  <si>
+    <t>Moderate risk: 73% of studies contributing to the analysis tested bupropion  </t>
+  </si>
+  <si>
+    <t>Low risk: 74% of studies were rated as low risk of bias and 5% were rated high risk of bias. </t>
+  </si>
+  <si>
+    <r>
+      <t>N=24, n=6308, random effects OR=2.12, 95%CI: 1.68, 2.67, I</t>
     </r>
     <r>
       <rPr>
@@ -479,18 +506,12 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>=0.08 </t>
-    </r>
-  </si>
-  <si>
-    <t>Low risk: 75% of studies were rated low risk of bias for RoB2 while only 4% were rated high risk of bias. </t>
-  </si>
-  <si>
-    <t>Headache reported for pro-dopaminergic interventions vs placebo </t>
-  </si>
-  <si>
-    <r>
-      <t>N=26, n=6518, random effects, OR=1.16, 95%CI: 1.03, 1.31, I</t>
+      <t>=0.080</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N=26, n=6527, random effects, OR=1.16, 95%CI: 1.03, 1.31, I</t>
     </r>
     <r>
       <rPr>
@@ -534,18 +555,18 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>=&lt;0.001 </t>
-    </r>
-  </si>
-  <si>
-    <t>Low risk: 62% of studies were rated low risk for RoB2 while 27% were rated as moderate risk with scores of ‘some concerns’ spread out across domains in no clear pattern. </t>
-  </si>
-  <si>
-    <t>Nausea reported for pro-dopaminergic interventions vs placebo </t>
-  </si>
-  <si>
-    <r>
-      <t>N=24, n=6480, random effects OR=1.46, 95%CI: 1.18, 1.78, I</t>
+      <t>=0</t>
+    </r>
+  </si>
+  <si>
+    <t>Low risk: 67% of studies were rated low risk of bias for RoB2 while only 4% were rated high risk of bias. </t>
+  </si>
+  <si>
+    <t>Low risk: 65% of studies were rated low risk for RoB2 while 31% were rated as moderate risk with scores of ‘some concerns’ spread out across domains in no clear pattern. </t>
+  </si>
+  <si>
+    <r>
+      <t>N=24, n=6489, random effects OR=1.46, 95%CI: 1.18, 1.79, I</t>
     </r>
     <r>
       <rPr>
@@ -589,21 +610,15 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>=0.06 </t>
-    </r>
-  </si>
-  <si>
-    <t>Low risk: 71% of studies were rated low risk for RoB2 while 21% were rated moderate. </t>
-  </si>
-  <si>
-    <t>Low risk: the impact of bias on the magnitude and direction of the effects of pro-dopaminergic agonists is low.  </t>
-  </si>
-  <si>
-    <t>Insomnia reported for pro-dopaminergic interventions vs placebo </t>
-  </si>
-  <si>
-    <r>
-      <t>N=22, n=5866, random effects OR=1.80, 95%CI: 1.43, 2.25, I</t>
+      <t>=0.064 </t>
+    </r>
+  </si>
+  <si>
+    <t>Low risk: 67% of studies were rated low risk for RoB2 while 21% were rated moderate. </t>
+  </si>
+  <si>
+    <r>
+      <t>N=22, n=5875, random effects OR=1.79, 95%CI: 1.42, 2.25, I</t>
     </r>
     <r>
       <rPr>
@@ -647,21 +662,15 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>=0.03 </t>
-    </r>
-  </si>
-  <si>
-    <t>Low risk: 68% of studies were rated as low risk for RoB2 while 28% were rated as moderate risk. </t>
-  </si>
-  <si>
-    <t>Low risk: studies included in the analysis utilised a variety of interventions used in differing populations in a range of settings. </t>
-  </si>
-  <si>
-    <t>Vomiting reported for pro-dopaminergic interventions vs placebo </t>
-  </si>
-  <si>
-    <r>
-      <t>N=5, n=962, random effects OR=1.89, 95%CI: 0.90, 4.00, I</t>
+      <t>=0.030 </t>
+    </r>
+  </si>
+  <si>
+    <t>Low risk: 64% of studies were rated as low risk for RoB2 while 32% were rated as moderate risk. </t>
+  </si>
+  <si>
+    <r>
+      <t>N=5, n=962, random effects OR=1.90, 95%CI: 0.90, 4.00, I</t>
     </r>
     <r>
       <rPr>
@@ -688,34 +697,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;0.001 </t>
-    </r>
-  </si>
-  <si>
-    <t>Moderate risk: 80% of studies were rated as moderate risk and 20% as high risk due to concerns in RoB2 domains 3 (missing outcome data) and 4 (measuring the outcome)  </t>
-  </si>
-  <si>
-    <t>Moderate risk: the impact of the bias on the magnitude and direction of the effects of pro-dopaminergic interventions is unclear. </t>
-  </si>
-  <si>
-    <t>Moderate risk: only 5 studies contributed to the analysis with a relatively small number of participants. A variety of interventions were tested.  </t>
+      <t>t2=0</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1325,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C433B388-4C10-4695-879F-238B8D5178E7}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1341,22 +1324,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="67.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G1" s="17"/>
     </row>
@@ -1365,200 +1348,200 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="175.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="148.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="132.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="132.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="133.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="137.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="131.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="162.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="175.5" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/human/LSR1_H_SOE.xlsx
+++ b/data/human/LSR1_H_SOE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkennett\Documents\GitHub\LSR1_anhedonia_H\data\human\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4D589D-11CA-4703-9A9B-E1691FEA90E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C21E9D3-5B27-4A69-BCFF-63D9A36D35D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7270" xr2:uid="{09461E91-9619-4CA9-A1C2-25F30588097D}"/>
+    <workbookView xWindow="29985" yWindow="585" windowWidth="26625" windowHeight="14820" xr2:uid="{09461E91-9619-4CA9-A1C2-25F30588097D}"/>
   </bookViews>
   <sheets>
     <sheet name="SOE" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>Pro-dopaminergic intervention. vs placebo in depressed patients with symptoms of anhedonia  </t>
   </si>
@@ -699,13 +699,22 @@
       </rPr>
       <t>t2=0</t>
     </r>
+  </si>
+  <si>
+    <t>Timepoint</t>
+  </si>
+  <si>
+    <t>8 weeks</t>
+  </si>
+  <si>
+    <t>4-12 weeks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,6 +752,12 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1306,245 +1321,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C433B388-4C10-4695-879F-238B8D5178E7}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.90625" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" customWidth="1"/>
+    <col min="1" max="2" width="16.90625" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" customWidth="1"/>
+    <col min="7" max="7" width="23.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="67.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="1:7" ht="405" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="189" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:7" ht="175.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="108" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="148.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="132.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="132.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="132.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="132.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="133.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="133.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="137.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="137.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="G8" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="131.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="131.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="G9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="162.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="81.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="G10" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="175.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="E11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="F11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="G11" s="16" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/human/LSR1_H_SOE.xlsx
+++ b/data/human/LSR1_H_SOE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkennett\Documents\GitHub\LSR1_anhedonia_H\data\human\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C21E9D3-5B27-4A69-BCFF-63D9A36D35D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0F2F2C-A42E-4827-8F61-E774A0250C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29985" yWindow="585" windowWidth="26625" windowHeight="14820" xr2:uid="{09461E91-9619-4CA9-A1C2-25F30588097D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{09461E91-9619-4CA9-A1C2-25F30588097D}"/>
   </bookViews>
   <sheets>
     <sheet name="SOE" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>Pro-dopaminergic intervention. vs placebo in depressed patients with symptoms of anhedonia  </t>
   </si>
@@ -181,9 +181,6 @@
     <t>Acceptability of pro-dopaminergic interventions vs placebo </t>
   </si>
   <si>
-    <t>Low risk: 10% of studies had an overall high risk of bias, primarily due to concerns over outcome measurement, while 32% were rated moderate risk of bias. </t>
-  </si>
-  <si>
     <t>Low risk: the impact of bias on the magnitude and direction of the effects of pro-dopaminergic agonists is low. </t>
   </si>
   <si>
@@ -293,27 +290,92 @@
     <t>Moderate risk: 33% of the studies had an overall high risk of bias (due to missing outcome data, and issues with outcome measurement and selective reporting of findings. 33% of studies had a moderate risk of bias.) </t>
   </si>
   <si>
-    <r>
-      <t>N=50, n=9168; Random effects: OR=0.96, 95%CI: 0.78,  1.18, I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">=62% </t>
+    <t>Low risk: 59% of studies were rated low risk of bias and only 8% were rated high risk of bias. </t>
+  </si>
+  <si>
+    <t>Moderate risk: 83% of studies were rated at least some concerns in RoB2 domain 5, selection of results. The impact of the bias on the magnitude and direction of the effects of pro-dopaminergic agonists is unclear. </t>
+  </si>
+  <si>
+    <t>Moderate risk: 83% of the studies measured the same intervention, bupropion.For outcomes, 50% of studies measured anhedonia using the MEI, 33% using the MADRS anhedonia item and 17% using the IDS-IVR-30/IDS-C-30 Pleasure Scale  No other clear indication of indirectness in terms of population, interventions, and outcomes.  </t>
+  </si>
+  <si>
+    <t>Moderate risk: 73% of studies were rated moderate risk of bias while 18% were rated as high risk of bias. This was primarily due to domain 2- deviation from intended interventions. </t>
+  </si>
+  <si>
+    <t>Moderate risk: 55% of studies were rated moderate risk in domain 5 of RoB2. The impact of the bias on the magnitude and direction of the effects is unclear. </t>
+  </si>
+  <si>
+    <t>Moderate risk: 73% of studies contributing to the analysis tested bupropion  </t>
+  </si>
+  <si>
+    <t>Low risk: 67% of studies were rated low risk of bias for RoB2 while only 4% were rated high risk of bias. </t>
+  </si>
+  <si>
+    <t>Low risk: 65% of studies were rated low risk for RoB2 while 31% were rated as moderate risk with scores of ‘some concerns’ spread out across domains in no clear pattern. </t>
+  </si>
+  <si>
+    <r>
+      <t>N=5, n=962, random effects OR=1.90, 95%CI: 0.90, 4.00, I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">=2% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>t2=0</t>
+    </r>
+  </si>
+  <si>
+    <t>Timepoint</t>
+  </si>
+  <si>
+    <t>8 weeks</t>
+  </si>
+  <si>
+    <t>4-12 weeks</t>
+  </si>
+  <si>
+    <r>
+      <t>N=52, n=9725; Random effects: OR=0.97, 95%CI: 0.79,  1.17, I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">=61% </t>
     </r>
     <r>
       <rPr>
@@ -338,12 +400,64 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>=0.240 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>N=19, n=4818; random effects: OR=1.55, 95%CI: 1.25, 1.93, I</t>
+      <t>=0.222 </t>
+    </r>
+  </si>
+  <si>
+    <t>Tolerability of pro-dopaminergic interventions vs placebo </t>
+  </si>
+  <si>
+    <r>
+      <t>N=43, n=9030; Random effects: OR=1.83, 95%CI: 1.38,  2.41, I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">=35% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>=0.223 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N=21, n=5375; random effects: OR=1.46, 95%CI: 1.17, 1.82, I</t>
     </r>
     <r>
       <rPr>
@@ -392,7 +506,7 @@
   </si>
   <si>
     <r>
-      <t>N=22, n=5469, random effects OR=1.72, 95%CI: 1.32, 2.23, I</t>
+      <t>N=24, n=6026, random effects OR=1.70, 95%CI: 1.32, 2.18, I</t>
     </r>
     <r>
       <rPr>
@@ -436,52 +550,31 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>=0.080 </t>
-    </r>
-  </si>
-  <si>
-    <t>Low risk: 59% of studies were rated low risk of bias and only 8% were rated high risk of bias. </t>
-  </si>
-  <si>
-    <t>Moderate risk: 83% of studies were rated at least some concerns in RoB2 domain 5, selection of results. The impact of the bias on the magnitude and direction of the effects of pro-dopaminergic agonists is unclear. </t>
-  </si>
-  <si>
-    <t>Moderate risk: 83% of the studies measured the same intervention, bupropion.For outcomes, 50% of studies measured anhedonia using the MEI, 33% using the MADRS anhedonia item and 17% using the IDS-IVR-30/IDS-C-30 Pleasure Scale  No other clear indication of indirectness in terms of population, interventions, and outcomes.  </t>
-  </si>
-  <si>
-    <t>Moderate risk: 73% of studies were rated moderate risk of bias while 18% were rated as high risk of bias. This was primarily due to domain 2- deviation from intended interventions. </t>
-  </si>
-  <si>
-    <t>Moderate risk: 55% of studies were rated moderate risk in domain 5 of RoB2. The impact of the bias on the magnitude and direction of the effects is unclear. </t>
-  </si>
-  <si>
-    <t>Moderate risk: 73% of studies contributing to the analysis tested bupropion  </t>
-  </si>
-  <si>
-    <t>Low risk: 74% of studies were rated as low risk of bias and 5% were rated high risk of bias. </t>
-  </si>
-  <si>
-    <r>
-      <t>N=24, n=6308, random effects OR=2.12, 95%CI: 1.68, 2.67, I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">=36% </t>
+      <t>=0.083 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N=26, n=6865, random effects OR=2.13, 95%CI: 1.73, 2.63, I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">=32% </t>
     </r>
     <r>
       <rPr>
@@ -506,12 +599,12 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>=0.080</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>N=26, n=6527, random effects, OR=1.16, 95%CI: 1.03, 1.31, I</t>
+      <t>=0.053</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N=28, n=7084, random effects, OR=1.14, 95%CI: 1.02, 1.28, I</t>
     </r>
     <r>
       <rPr>
@@ -559,33 +652,27 @@
     </r>
   </si>
   <si>
-    <t>Low risk: 67% of studies were rated low risk of bias for RoB2 while only 4% were rated high risk of bias. </t>
-  </si>
-  <si>
-    <t>Low risk: 65% of studies were rated low risk for RoB2 while 31% were rated as moderate risk with scores of ‘some concerns’ spread out across domains in no clear pattern. </t>
-  </si>
-  <si>
-    <r>
-      <t>N=24, n=6489, random effects OR=1.46, 95%CI: 1.18, 1.79, I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">=27% </t>
+    <r>
+      <t>N=26, n=6489, random effects OR=1.46, 95%CI: 1.21, 1.76, I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">=22% </t>
     </r>
     <r>
       <rPr>
@@ -610,34 +697,31 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>=0.064 </t>
-    </r>
-  </si>
-  <si>
-    <t>Low risk: 67% of studies were rated low risk for RoB2 while 21% were rated moderate. </t>
-  </si>
-  <si>
-    <r>
-      <t>N=22, n=5875, random effects OR=1.79, 95%CI: 1.42, 2.25, I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">=5% </t>
+      <t>=0.043 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N=24, n=6432, random effects OR=1.81, 95%CI: 1.46, 2.25, I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">=7% </t>
     </r>
     <r>
       <rPr>
@@ -662,52 +746,23 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>=0.030 </t>
-    </r>
-  </si>
-  <si>
-    <t>Low risk: 64% of studies were rated as low risk for RoB2 while 32% were rated as moderate risk. </t>
-  </si>
-  <si>
-    <r>
-      <t>N=5, n=962, random effects OR=1.90, 95%CI: 0.90, 4.00, I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">=2% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>t2=0</t>
-    </r>
-  </si>
-  <si>
-    <t>Timepoint</t>
-  </si>
-  <si>
-    <t>8 weeks</t>
-  </si>
-  <si>
-    <t>4-12 weeks</t>
+      <t>=0.031 </t>
+    </r>
+  </si>
+  <si>
+    <t>Low risk: 10% of studies had an overall high risk of bias, primarily due to concerns over outcome measurement, while 31% were rated moderate risk of bias. </t>
+  </si>
+  <si>
+    <t>Low risk: 12% of studies had an overall high risk of bias, primarily due to concerns over outcome measurement, while 35% were rated moderate risk of bias. </t>
+  </si>
+  <si>
+    <t>Low risk: 77% of studies were rated as low risk of bias and 5% were rated high risk of bias. </t>
+  </si>
+  <si>
+    <t>Low risk: 73% of studies were rated low risk for RoB2 while 23% were rated moderate. </t>
+  </si>
+  <si>
+    <t>Low risk: 68% of studies were rated as low risk for RoB2 while 28% were rated as moderate risk. </t>
   </si>
 </sst>
 </file>
@@ -1321,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C433B388-4C10-4695-879F-238B8D5178E7}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1342,7 +1397,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -1366,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>1</v>
@@ -1390,19 +1445,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>1</v>
@@ -1413,178 +1468,205 @@
         <v>10</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="132.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="10" t="s">
+    <row r="5" spans="1:8" ht="94.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>16</v>
+      <c r="G5" s="8" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="132.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="132.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="133.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="7" spans="1:8" ht="133.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="12" t="s">
+    <row r="9" spans="1:8" ht="137.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="B9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="8" spans="1:8" ht="137.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
+    <row r="10" spans="1:8" ht="131.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="B10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="9" spans="1:8" ht="131.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="5" t="s">
+    <row r="11" spans="1:8" ht="81.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>16</v>
+      <c r="B11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="81.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="5" t="s">
+    <row r="12" spans="1:8" ht="108" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="94.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+      <c r="B12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="E12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="F12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="16" t="s">
+      <c r="G12" s="16" t="s">
         <v>1</v>
       </c>
     </row>

--- a/data/human/LSR1_H_SOE.xlsx
+++ b/data/human/LSR1_H_SOE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkennett\Documents\GitHub\LSR1_anhedonia_H\data\human\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edoardoostinelli/Documents/GitHub/LSR1_anhedonia_H/data/human/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0F2F2C-A42E-4827-8F61-E774A0250C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7B72B8-6AA1-B94E-8D1F-7E2F4FC15E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{09461E91-9619-4CA9-A1C2-25F30588097D}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21820" xr2:uid="{09461E91-9619-4CA9-A1C2-25F30588097D}"/>
   </bookViews>
   <sheets>
     <sheet name="SOE" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>Pro-dopaminergic intervention. vs placebo in depressed patients with symptoms of anhedonia  </t>
   </si>
@@ -184,15 +184,9 @@
     <t>Low risk: the impact of bias on the magnitude and direction of the effects of pro-dopaminergic agonists is low. </t>
   </si>
   <si>
-    <t>Low risk: studies included utilised a variety of interventions used in differing populations in a range of settings. </t>
-  </si>
-  <si>
     <t>Constipation reported for pro-dopaminergic interventions vs placebo </t>
   </si>
   <si>
-    <t>Low risk: studies included in the analysis utilised a variety of interventions used in differing populations in a range of settings. </t>
-  </si>
-  <si>
     <t>No clear indication of other biases </t>
   </si>
   <si>
@@ -214,9 +208,6 @@
     <t>Insomnia reported for pro-dopaminergic interventions vs placebo </t>
   </si>
   <si>
-    <t>Low risk: studies included in the analysis utilised a variety of interventions used in differing populations in a range of settings. </t>
-  </si>
-  <si>
     <t>Vomiting reported for pro-dopaminergic interventions vs placebo </t>
   </si>
   <si>
@@ -226,9 +217,6 @@
     <t>Moderate risk: the impact of the bias on the magnitude and direction of the effects of pro-dopaminergic interventions is unclear. </t>
   </si>
   <si>
-    <t>Moderate risk: only 5 studies contributed to the analysis with a relatively small number of participants. A variety of interventions were tested.  </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">N=6, n=2076; random effects: SMD= -0.24, 95%CI: -0.46, -0.03, </t>
     </r>
@@ -296,18 +284,12 @@
     <t>Moderate risk: 83% of studies were rated at least some concerns in RoB2 domain 5, selection of results. The impact of the bias on the magnitude and direction of the effects of pro-dopaminergic agonists is unclear. </t>
   </si>
   <si>
-    <t>Moderate risk: 83% of the studies measured the same intervention, bupropion.For outcomes, 50% of studies measured anhedonia using the MEI, 33% using the MADRS anhedonia item and 17% using the IDS-IVR-30/IDS-C-30 Pleasure Scale  No other clear indication of indirectness in terms of population, interventions, and outcomes.  </t>
-  </si>
-  <si>
     <t>Moderate risk: 73% of studies were rated moderate risk of bias while 18% were rated as high risk of bias. This was primarily due to domain 2- deviation from intended interventions. </t>
   </si>
   <si>
     <t>Moderate risk: 55% of studies were rated moderate risk in domain 5 of RoB2. The impact of the bias on the magnitude and direction of the effects is unclear. </t>
   </si>
   <si>
-    <t>Moderate risk: 73% of studies contributing to the analysis tested bupropion  </t>
-  </si>
-  <si>
     <t>Low risk: 67% of studies were rated low risk of bias for RoB2 while only 4% were rated high risk of bias. </t>
   </si>
   <si>
@@ -763,6 +745,12 @@
   </si>
   <si>
     <t>Low risk: 68% of studies were rated as low risk for RoB2 while 28% were rated as moderate risk. </t>
+  </si>
+  <si>
+    <t>Low risk: all studies included patients with depression receiving pro-dopaminergic interventions and assessed for anhedonia.</t>
+  </si>
+  <si>
+    <t>Moderate risk: 50% of the studies used the Motivation and Energy Inventory, 33% using a single MADRS anhedonia item, and 17% using the IDS-IVR-30/IDS-C-30 Pleasure Scale. As anhedonia is a complex construct, “pleasure” scales and single items may fail at capturing the complexity of anhedonia in the context of depression.</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +998,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1060,7 +1048,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1080,9 +1067,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1120,7 +1107,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1226,7 +1213,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1368,7 +1355,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1379,25 +1366,25 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16.90625" customWidth="1"/>
-    <col min="3" max="3" width="20.36328125" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" customWidth="1"/>
+    <col min="1" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="25.453125" customWidth="1"/>
-    <col min="7" max="7" width="23.81640625" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -1414,257 +1401,256 @@
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="1:8" ht="189" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="195" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="17"/>
     </row>
-    <row r="3" spans="1:8" ht="108" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="132.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="132.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="132.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="132.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>14</v>
+      <c r="F7" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="G7" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="133.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="133.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="12" t="s">
-        <v>17</v>
-      </c>
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>14</v>
+      <c r="F8" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="137.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="137.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>14</v>
+      <c r="F9" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="131.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="131.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="91" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="81.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>22</v>
+      <c r="F11" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="108" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="105" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>1</v>

--- a/data/human/LSR1_H_SOE.xlsx
+++ b/data/human/LSR1_H_SOE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edoardoostinelli/Documents/GitHub/LSR1_anhedonia_H/data/human/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkennett\Documents\GitHub\LSR1_anhedonia_H\data\human\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7B72B8-6AA1-B94E-8D1F-7E2F4FC15E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ED5F34-7023-4435-AC2B-2C0C00E17612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21820" xr2:uid="{09461E91-9619-4CA9-A1C2-25F30588097D}"/>
+    <workbookView xWindow="35550" yWindow="900" windowWidth="20055" windowHeight="14625" xr2:uid="{09461E91-9619-4CA9-A1C2-25F30588097D}"/>
   </bookViews>
   <sheets>
     <sheet name="SOE" sheetId="1" r:id="rId1"/>
@@ -129,55 +129,6 @@
     <t>Pro-dopaminergic interventions vs placebo in improving anxiety </t>
   </si>
   <si>
-    <r>
-      <t>N=11, n=3517; random effects: SMD=-0.17, 95%CI: -0.24, -0.09, I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>=0%,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;0.001 </t>
-    </r>
-  </si>
-  <si>
     <t>Acceptability of pro-dopaminergic interventions vs placebo </t>
   </si>
   <si>
@@ -217,64 +168,6 @@
     <t>Moderate risk: the impact of the bias on the magnitude and direction of the effects of pro-dopaminergic interventions is unclear. </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">N=6, n=2076; random effects: SMD= -0.24, 95%CI: -0.46, -0.03, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>=68%,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>=0.025 </t>
-    </r>
-  </si>
-  <si>
     <t>Moderate risk: 33% of the studies had an overall high risk of bias (due to missing outcome data, and issues with outcome measurement and selective reporting of findings. 33% of studies had a moderate risk of bias.) </t>
   </si>
   <si>
@@ -296,38 +189,6 @@
     <t>Low risk: 65% of studies were rated low risk for RoB2 while 31% were rated as moderate risk with scores of ‘some concerns’ spread out across domains in no clear pattern. </t>
   </si>
   <si>
-    <r>
-      <t>N=5, n=962, random effects OR=1.90, 95%CI: 0.90, 4.00, I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">=2% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>t2=0</t>
-    </r>
-  </si>
-  <si>
     <t>Timepoint</t>
   </si>
   <si>
@@ -337,401 +198,9 @@
     <t>4-12 weeks</t>
   </si>
   <si>
-    <r>
-      <t>N=52, n=9725; Random effects: OR=0.97, 95%CI: 0.79,  1.17, I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">=61% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>=0.222 </t>
-    </r>
-  </si>
-  <si>
     <t>Tolerability of pro-dopaminergic interventions vs placebo </t>
   </si>
   <si>
-    <r>
-      <t>N=43, n=9030; Random effects: OR=1.83, 95%CI: 1.38,  2.41, I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">=35% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>=0.223 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>N=21, n=5375; random effects: OR=1.46, 95%CI: 1.17, 1.82, I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">=0% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>=0 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>N=24, n=6026, random effects OR=1.70, 95%CI: 1.32, 2.18, I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">=26% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>=0.083 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>N=26, n=6865, random effects OR=2.13, 95%CI: 1.73, 2.63, I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">=32% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>=0.053</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>N=28, n=7084, random effects, OR=1.14, 95%CI: 1.02, 1.28, I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">=0% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>=0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>N=26, n=6489, random effects OR=1.46, 95%CI: 1.21, 1.76, I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">=22% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>=0.043 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>N=24, n=6432, random effects OR=1.81, 95%CI: 1.46, 2.25, I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">=7% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>=0.031 </t>
-    </r>
-  </si>
-  <si>
     <t>Low risk: 10% of studies had an overall high risk of bias, primarily due to concerns over outcome measurement, while 31% were rated moderate risk of bias. </t>
   </si>
   <si>
@@ -751,13 +220,46 @@
   </si>
   <si>
     <t>Moderate risk: 50% of the studies used the Motivation and Energy Inventory, 33% using a single MADRS anhedonia item, and 17% using the IDS-IVR-30/IDS-C-30 Pleasure Scale. As anhedonia is a complex construct, “pleasure” scales and single items may fail at capturing the complexity of anhedonia in the context of depression.</t>
+  </si>
+  <si>
+    <t>N=21, n=5375; random effects: OR=1.46, 95%CI: 1.17, 1.82, 95% PI: 1.15, 1.84</t>
+  </si>
+  <si>
+    <t>N=28, n=7084, random effects, OR=1.14, 95%CI: 1.02, 1.28, 0</t>
+  </si>
+  <si>
+    <t>N=24, n=6026, random effects OR=1.70, 95%CI: 1.32, 2.18, 95%PI: 0.89, 3.24</t>
+  </si>
+  <si>
+    <t>N=26, n=6865, random effects OR=2.13, 95%CI: 1.73, 2.63, 95%PI: 1.28, 3.56</t>
+  </si>
+  <si>
+    <t>N=26, n=6489, random effects OR=1.46, 95%CI: 1.21, 1.76, 95% PI: 0.92, 2.29</t>
+  </si>
+  <si>
+    <t>N=24, n=6432, random effects OR=1.81, 95%CI: 1.46, 2.25, 95%PI: 1.18, 2.78</t>
+  </si>
+  <si>
+    <t>N=5, n=962, random effects OR=1.90, 95%CI: 0.90, 4.00, 95%PI: 0.82, 4.42</t>
+  </si>
+  <si>
+    <t>N=11, n=3517; random effects: SMD=-0.17, 95%CI: -0.24, -0.09, 95%PI: -0.25, -0.08</t>
+  </si>
+  <si>
+    <t>N=6, n=2076; random effects: SMD= -0.24, 95%CI: -0.46, -0.03, 95%PI: -0.77. 0.34 </t>
+  </si>
+  <si>
+    <t>N=52, n=9725; Random effects: OR=0.97, 95%CI: 0.79,  1.17, 95%PI: 0.37, 2.53</t>
+  </si>
+  <si>
+    <t>N=43, n=9030; Random effects: OR=1.83, 95%CI: 1.38,  2.41, 95%PI: 0.67, 4.95</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -773,19 +275,6 @@
     <font>
       <sz val="10.5"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="8"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1003,7 +492,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1067,9 +556,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1107,7 +596,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1213,7 +702,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1355,7 +844,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1365,26 +854,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C433B388-4C10-4695-879F-238B8D5178E7}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="1" max="2" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="25.5" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" customWidth="1"/>
+    <col min="7" max="7" width="23.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -1402,262 +891,262 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="195" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="175.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="17"/>
     </row>
-    <row r="3" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="108" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" s="7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="132.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="132.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="10" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="132.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>13</v>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="132.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="8" spans="1:8" ht="133.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>13</v>
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="133.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="9" spans="1:8" ht="137.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="137.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>16</v>
-      </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="131.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>13</v>
+      <c r="C10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="131.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="5" t="s">
+    <row r="11" spans="1:8" ht="81.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="91" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>19</v>
-      </c>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="105" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="E12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>22</v>
-      </c>
       <c r="F12" s="7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/human/LSR1_H_SOE.xlsx
+++ b/data/human/LSR1_H_SOE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkennett\Documents\GitHub\LSR1_anhedonia_H\data\human\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ED5F34-7023-4435-AC2B-2C0C00E17612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE69170A-DEC4-48A3-A2D9-F2C96F6F8BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35550" yWindow="900" windowWidth="20055" windowHeight="14625" xr2:uid="{09461E91-9619-4CA9-A1C2-25F30588097D}"/>
   </bookViews>
@@ -219,9 +219,6 @@
     <t>Low risk: all studies included patients with depression receiving pro-dopaminergic interventions and assessed for anhedonia.</t>
   </si>
   <si>
-    <t>Moderate risk: 50% of the studies used the Motivation and Energy Inventory, 33% using a single MADRS anhedonia item, and 17% using the IDS-IVR-30/IDS-C-30 Pleasure Scale. As anhedonia is a complex construct, “pleasure” scales and single items may fail at capturing the complexity of anhedonia in the context of depression.</t>
-  </si>
-  <si>
     <t>N=21, n=5375; random effects: OR=1.46, 95%CI: 1.17, 1.82, 95% PI: 1.15, 1.84</t>
   </si>
   <si>
@@ -253,6 +250,9 @@
   </si>
   <si>
     <t>N=43, n=9030; Random effects: OR=1.83, 95%CI: 1.38,  2.41, 95%PI: 0.67, 4.95</t>
+  </si>
+  <si>
+    <t>Moderate risk: 83% of included studies examined the effects of the same pro-dopaminergic intervention, bupropion.</t>
   </si>
 </sst>
 </file>
@@ -855,7 +855,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -891,7 +891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="175.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="135" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -899,7 +899,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>22</v>
@@ -908,7 +908,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>1</v>
@@ -923,7 +923,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>25</v>
@@ -946,7 +946,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>33</v>
@@ -969,7 +969,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>34</v>
@@ -992,7 +992,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>35</v>
@@ -1015,7 +1015,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>23</v>
@@ -1038,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>27</v>
@@ -1061,7 +1061,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>28</v>
@@ -1084,7 +1084,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>36</v>
@@ -1107,7 +1107,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>37</v>
@@ -1130,7 +1130,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>20</v>

--- a/data/human/LSR1_H_SOE.xlsx
+++ b/data/human/LSR1_H_SOE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkennett\Documents\GitHub\LSR1_anhedonia_H\data\human\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edoardoostinelli/Documents/GitHub/LSR1_anhedonia_H/data/human/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE69170A-DEC4-48A3-A2D9-F2C96F6F8BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7B72B8-6AA1-B94E-8D1F-7E2F4FC15E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35550" yWindow="900" windowWidth="20055" windowHeight="14625" xr2:uid="{09461E91-9619-4CA9-A1C2-25F30588097D}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21820" xr2:uid="{09461E91-9619-4CA9-A1C2-25F30588097D}"/>
   </bookViews>
   <sheets>
     <sheet name="SOE" sheetId="1" r:id="rId1"/>
@@ -129,6 +129,55 @@
     <t>Pro-dopaminergic interventions vs placebo in improving anxiety </t>
   </si>
   <si>
+    <r>
+      <t>N=11, n=3517; random effects: SMD=-0.17, 95%CI: -0.24, -0.09, I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>=0%,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;0.001 </t>
+    </r>
+  </si>
+  <si>
     <t>Acceptability of pro-dopaminergic interventions vs placebo </t>
   </si>
   <si>
@@ -168,6 +217,64 @@
     <t>Moderate risk: the impact of the bias on the magnitude and direction of the effects of pro-dopaminergic interventions is unclear. </t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">N=6, n=2076; random effects: SMD= -0.24, 95%CI: -0.46, -0.03, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>=68%,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>=0.025 </t>
+    </r>
+  </si>
+  <si>
     <t>Moderate risk: 33% of the studies had an overall high risk of bias (due to missing outcome data, and issues with outcome measurement and selective reporting of findings. 33% of studies had a moderate risk of bias.) </t>
   </si>
   <si>
@@ -189,6 +296,38 @@
     <t>Low risk: 65% of studies were rated low risk for RoB2 while 31% were rated as moderate risk with scores of ‘some concerns’ spread out across domains in no clear pattern. </t>
   </si>
   <si>
+    <r>
+      <t>N=5, n=962, random effects OR=1.90, 95%CI: 0.90, 4.00, I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">=2% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>t2=0</t>
+    </r>
+  </si>
+  <si>
     <t>Timepoint</t>
   </si>
   <si>
@@ -198,9 +337,401 @@
     <t>4-12 weeks</t>
   </si>
   <si>
+    <r>
+      <t>N=52, n=9725; Random effects: OR=0.97, 95%CI: 0.79,  1.17, I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">=61% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>=0.222 </t>
+    </r>
+  </si>
+  <si>
     <t>Tolerability of pro-dopaminergic interventions vs placebo </t>
   </si>
   <si>
+    <r>
+      <t>N=43, n=9030; Random effects: OR=1.83, 95%CI: 1.38,  2.41, I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">=35% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>=0.223 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N=21, n=5375; random effects: OR=1.46, 95%CI: 1.17, 1.82, I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">=0% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>=0 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N=24, n=6026, random effects OR=1.70, 95%CI: 1.32, 2.18, I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">=26% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>=0.083 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N=26, n=6865, random effects OR=2.13, 95%CI: 1.73, 2.63, I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">=32% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>=0.053</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N=28, n=7084, random effects, OR=1.14, 95%CI: 1.02, 1.28, I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">=0% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>=0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N=26, n=6489, random effects OR=1.46, 95%CI: 1.21, 1.76, I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">=22% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>=0.043 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N=24, n=6432, random effects OR=1.81, 95%CI: 1.46, 2.25, I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">=7% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>=0.031 </t>
+    </r>
+  </si>
+  <si>
     <t>Low risk: 10% of studies had an overall high risk of bias, primarily due to concerns over outcome measurement, while 31% were rated moderate risk of bias. </t>
   </si>
   <si>
@@ -219,47 +750,14 @@
     <t>Low risk: all studies included patients with depression receiving pro-dopaminergic interventions and assessed for anhedonia.</t>
   </si>
   <si>
-    <t>N=21, n=5375; random effects: OR=1.46, 95%CI: 1.17, 1.82, 95% PI: 1.15, 1.84</t>
-  </si>
-  <si>
-    <t>N=28, n=7084, random effects, OR=1.14, 95%CI: 1.02, 1.28, 0</t>
-  </si>
-  <si>
-    <t>N=24, n=6026, random effects OR=1.70, 95%CI: 1.32, 2.18, 95%PI: 0.89, 3.24</t>
-  </si>
-  <si>
-    <t>N=26, n=6865, random effects OR=2.13, 95%CI: 1.73, 2.63, 95%PI: 1.28, 3.56</t>
-  </si>
-  <si>
-    <t>N=26, n=6489, random effects OR=1.46, 95%CI: 1.21, 1.76, 95% PI: 0.92, 2.29</t>
-  </si>
-  <si>
-    <t>N=24, n=6432, random effects OR=1.81, 95%CI: 1.46, 2.25, 95%PI: 1.18, 2.78</t>
-  </si>
-  <si>
-    <t>N=5, n=962, random effects OR=1.90, 95%CI: 0.90, 4.00, 95%PI: 0.82, 4.42</t>
-  </si>
-  <si>
-    <t>N=11, n=3517; random effects: SMD=-0.17, 95%CI: -0.24, -0.09, 95%PI: -0.25, -0.08</t>
-  </si>
-  <si>
-    <t>N=6, n=2076; random effects: SMD= -0.24, 95%CI: -0.46, -0.03, 95%PI: -0.77. 0.34 </t>
-  </si>
-  <si>
-    <t>N=52, n=9725; Random effects: OR=0.97, 95%CI: 0.79,  1.17, 95%PI: 0.37, 2.53</t>
-  </si>
-  <si>
-    <t>N=43, n=9030; Random effects: OR=1.83, 95%CI: 1.38,  2.41, 95%PI: 0.67, 4.95</t>
-  </si>
-  <si>
-    <t>Moderate risk: 83% of included studies examined the effects of the same pro-dopaminergic intervention, bupropion.</t>
+    <t>Moderate risk: 50% of the studies used the Motivation and Energy Inventory, 33% using a single MADRS anhedonia item, and 17% using the IDS-IVR-30/IDS-C-30 Pleasure Scale. As anhedonia is a complex construct, “pleasure” scales and single items may fail at capturing the complexity of anhedonia in the context of depression.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +773,19 @@
     <font>
       <sz val="10.5"/>
       <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -492,7 +1003,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -556,9 +1067,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -596,7 +1107,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -702,7 +1213,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -844,7 +1355,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -854,26 +1365,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C433B388-4C10-4695-879F-238B8D5178E7}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16.81640625" customWidth="1"/>
-    <col min="3" max="3" width="20.36328125" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" customWidth="1"/>
+    <col min="1" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="25.453125" customWidth="1"/>
-    <col min="7" max="7" width="23.81640625" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -891,21 +1402,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="135" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="195" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>50</v>
@@ -915,238 +1426,238 @@
       </c>
       <c r="H2" s="17"/>
     </row>
-    <row r="3" spans="1:8" ht="108" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="132.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="132.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="F6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="132.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="133.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="137.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>12</v>
+      <c r="E9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="132.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="12" t="s">
+    <row r="10" spans="1:8" ht="131.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="8" spans="1:8" ht="133.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="137.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="131.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="5" t="s">
+    <row r="11" spans="1:8" ht="91" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="81.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="105" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
